--- a/batch/tasks_setting.xlsx
+++ b/batch/tasks_setting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,29 +488,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OKQMER75Vms</t>
+          <t>https://www.youtube.com/watch?v=QdcoDUGLe14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>China wants to mass-produce space rockets like cars</t>
+          <t>Colombia orders military deployment near border with Venezuela</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">China is moving to a lean manufacturing model to mass produce space vehicles. </t>
+          <t>CNN's David Culver reports from the border of Venezuela and Colombia where the Colombian government has ordered a military deployment after Nicolás Maduro was captured by US forces. #cnn #colombia #militarydeployed #venezuelanborder</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>67648</v>
+        <v>38742</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inside China Business</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>354</v>
+        <v>133</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -527,36 +527,36 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Error: Unhandled exception - Number of videos found 0 is not unique. Please check.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=oQ3w9j2rmao</t>
+          <t>https://www.youtube.com/watch?v=yeMW7YHSlH0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trump ACTUALLY DID IT with marijuana</t>
+          <t>'Profound feeling of uncertainty' in Venezuela over what comes next</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-- Donald Trump signs an executive order reclassifying cannabis to Schedule III, formally acknowledging medical use while stopping far short of federal legalization or criminal justice reform</t>
+          <t>WIth Venezuelan President Nicolás Maduro in U.S. custody there are growing questions over what comes next for the country. MS NOW Reporter David Noriega has the latest updates on how Venezuelans are feeling right now. Retired Colonel Jack Jacobs joins Ana Cabrera to share his reaction.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21631</v>
+        <v>5421</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>MS NOW</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -580,29 +580,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khNQnR_JRTk</t>
+          <t>https://www.youtube.com/watch?v=OeCUwdAtYvw</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bill O'Reilly on the Latest Example of Activist Judges Enabling Crime</t>
+          <t>Marc Caputo: Trump made sure Rubio was secretary of state in part due to his Venezuela policy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bill argues that today’s legal system does not want to punish criminals, pointing to the judges in a recent Tennessee case as an example.</t>
+          <t>Axios' Marc Caputo joins Morning Joe to discuss his latest piece 'Marco Rubio's Venezuela Moment'.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48917</v>
+        <v>18061</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bill O'Reilly</t>
+          <t>MS NOW</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>429</v>
+        <v>298</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -626,29 +626,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=64_o8CY4lsc</t>
+          <t>https://www.youtube.com/watch?v=p3ABhKBMfMI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bill O'Reilly on Christmas in Levittown, New York</t>
+          <t>Trump 'promised he'd be a peacetime president': Oversight Dem reacts to Maduro capture</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bill O'Reilly reminisces on Christmas in Levittown, New York.</t>
+          <t>Venezuelan President Nicolás Maduro was captured by U.S. forces on Saturday and will now be arraigned on federal drug charges in a New York courthouse. Rep. Suhas Subramanyam (D-VA), member of the House Oversight Committee, joins Ana Cabrera to discuss the Trump administration's handling of the situation.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>41783</v>
+        <v>5959</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bill O'Reilly</t>
+          <t>MS NOW</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>392</v>
+        <v>244</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -672,29 +672,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5zTU_ZbJ3JE</t>
+          <t>https://www.youtube.com/watch?v=xPU8XlPYF_0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The best way to make money in China:  stay away</t>
+          <t>Joe: Trump must explain how Venezuela move makes Americans’ lives better</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The world's richest brands are struggling in China, as domestic firms are more innovative, faster to market with new products, and aggressively cut prices to grow market share.</t>
+          <t>As President Trump ramps up rhetoric toward Venezuela, Joe Scarborough questions how the move actually helps Americans — warning that voters focused on affordability and daily costs aren’t asking for another foreign crisis.</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>38681</v>
+        <v>3291</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inside China Business</t>
+          <t>MS NOW</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>484</v>
+        <v>177</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -718,29 +718,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=lUc9QOIFccE</t>
+          <t>https://www.youtube.com/watch?v=2h9WArOjHn4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>82-year-old who can’t stay awake won’t be up for a 3rd term</t>
+          <t>Dana Perino: Trump ‘MEANS BUSINESS’</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-- Donald Trump repeatedly falling asleep during official meetings raises unavoidable questions about stamina and fitness for future office</t>
+          <t>'America's Newsroom' co-anchor Dana Perino joins 'Fox &amp; Friends' to react to Nicolás Maduro's arrest and the broader global impact as President Donald Trump protects U.S. interests abroad.</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>52647</v>
+        <v>13744</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>361</v>
+        <v>266</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -764,29 +764,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TaVwB0z4K20</t>
+          <t>https://www.youtube.com/watch?v=mMQz12O2DV4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bill O'Reilly Breaks Down President Trump's Address</t>
+          <t>Harris Faulkner: The writing on the wall is VERY clear here...</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bill lays out the issues facing President Trump and Americans, analyzing his speech.</t>
+          <t xml:space="preserve">Fox News' Steve Harrigan reports the latest on the impact of the Maduro capture on Colombia. Rick De La Torre, who was a CIA station chief in Caracas, also joined 'The Faulkner Focus' to discuss the aftermath and more. #foxnews #world #news #venezuela #politics </t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13096</v>
+        <v>91403</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bill O'Reilly</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>460</v>
+        <v>393</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -810,29 +810,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=VmESnJ-xAfo</t>
+          <t>https://www.youtube.com/watch?v=qYk-K8lhZHc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ella Purnell Thinks Fallout's Terrifying Deathclaws Are Actually Cute</t>
+          <t>Trump invaded Venezuela because Maduro was dancing</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ella Purnell talks about starring in Season 2 of Fallout, starring alongside Walton Goggins in the show and her soft spot for the show's terrifying Deathclaws creatures.</t>
+          <t>-- Reporting says Donald Trump escalates to military action after Nicolás Maduro dances on Venezuelan state television and aides treat it as personal mockery</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>184976</v>
+        <v>6492</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Late Night with Seth Meyers</t>
+          <t>David Pakman Show</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>449</v>
+        <v>341</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -856,29 +856,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JBgj2Ebj5gw</t>
+          <t>https://www.youtube.com/watch?v=sy8ncMFEPdE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Trump dealt NEW BOMB in Epstein files | Another Day</t>
+          <t>Trump invaded Venezuela… because Maduro danced? #shorts</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Trump dealt NEW BOMB in Epstein files | Another Day</t>
+          <t>Become a Member: https://www.davidpakman.com/membership</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>226547</v>
+        <v>35391</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Brian Tyler Cohen</t>
+          <t>David Pakman Show</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>488</v>
+        <v>148</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -902,21 +902,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OffCnyryWtI</t>
+          <t>https://www.youtube.com/watch?v=gx3C_a6GKtw</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sorry guys, it’s going to take a little longer for things to be great</t>
+          <t>Trump thinks he’s going to trick you with this</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-- Trump administration officials delay credit for economic outcomes by pushing promised gains into 2026 while deflecting questions about present-day performance</t>
+          <t>-- Donald Trump repeatedly claims he inherited a broken economy despite taking office amid falling inflation and strong employment, then blames Joe Biden</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33344</v>
+        <v>67864</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -948,29 +948,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j0QVsZbRxb8</t>
+          <t>https://www.youtube.com/watch?v=9rRNJYnh-J0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>More farm troubles:  Global fertilizer markets seize up after China, Russia keep theirs at home</t>
+          <t>They’ve already DESTROYED Charlie Kirk</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fertilizer prices are soaring again, after Chinese and Russian suppliers sharply reduce exports.</t>
+          <t>-- The MAGA movement exploits Charlie Kirk’s assassination for fundraising and branding while abandoning his legacy and losing his former audience to more extreme figures</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>65403</v>
+        <v>277021</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inside China Business</t>
+          <t>David Pakman Show</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -994,29 +994,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=CUW2GmKtqO0</t>
+          <t>https://www.youtube.com/watch?v=FaEWduvpsWQ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Seth Remembers Rob Reiner</t>
+          <t>This one is really going to trigger Trump</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Seth celebrates the life of Rob Reiner and his wife Michele by sharing personal stories about Rob at Norman Lear's 100th birthday and watching his shows as a child.</t>
+          <t>-- Donald Trump’s elastic definition of ending wars collapses when applied consistently, revealing that by Trump’s own standards Barack Obama would qualify as having ended far more conflicts</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1172932</v>
+        <v>171136</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Late Night with Seth Meyers</t>
+          <t>David Pakman Show</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1040,29 +1040,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=O7L1C1_e88c</t>
+          <t>https://www.youtube.com/watch?v=uHryJYcm5Jg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>China's export juggernaut:  low prices and booming trade to rest of world, while Americans buy less</t>
+          <t>They’re OUT OF IDEAS and they’re about to SCREW YOU</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>High tariffs in the United States resulted in a sharp $38 billion reduction in Chinese imports in the 3rd quarter, compared to the same period in 2024.</t>
+          <t>-- Trump administration allies promote 50-year mortgages that lower monthly payments while massively increasing lifetime costs, trapping buyers in long-term debt</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>61371</v>
+        <v>39117</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inside China Business</t>
+          <t>David Pakman Show</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>464</v>
+        <v>321</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1086,29 +1086,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=nZuVytCfghY</t>
+          <t>https://www.youtube.com/watch?v=6vw4hKAzo0k</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Trump completely unable to explain Epstein files</t>
+          <t>Revolutionary generator transforms Chinese factories into power plants</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-- Donald Trump repeatedly contradicts himself while responding to questions about Jeffrey Epstein, attacking critics and minimizing his own documented connections</t>
+          <t>Chinese engineers deployed the world's first commercially viable sCO2 power generators, at a steel mill in Guizhou.</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>239249</v>
+        <v>33642</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Inside China Business</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>470</v>
+        <v>281</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1132,29 +1132,29 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=6F3KyCFAOzY</t>
+          <t>https://www.youtube.com/watch?v=qo8QnxqF92Y</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BOMBSHELL EPSTEIN LETTER: TRUMP “LOVES” YOUNG GIRLS</t>
+          <t>AI is revolutionizing Chinese coal production, and blowing up labor models everywhere else</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-- A newly released Jeffrey Epstein letter claims Donald Trump shares an explicit sexual interest in young women, raising serious questions</t>
+          <t>Coal prices are in steep decline across the world, and that should translate to collapsing profitability for coal miners.</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>182725</v>
+        <v>63034</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Inside China Business</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>481</v>
+        <v>360</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1178,29 +1178,29 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Px3-vj7XZIo</t>
+          <t>https://www.youtube.com/watch?v=OKQMER75Vms</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Insane Trump scandal ERUPTS into national news | Another Day</t>
+          <t>China wants to mass-produce space rockets like cars</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>New Trump scandal SURGES into national news | Another Day</t>
+          <t xml:space="preserve">China is moving to a lean manufacturing model to mass produce space vehicles. </t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>293127</v>
+        <v>72098</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Brian Tyler Cohen</t>
+          <t>Inside China Business</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>500</v>
+        <v>354</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1217,36 +1217,36 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Error: 📝 Summarizing and translating - 'origin'</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=fjq2RBs4f6U</t>
+          <t>https://www.youtube.com/watch?v=2wq4EMVoKuM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WHACKED OUT Trump says he HAS to steal a country</t>
+          <t>The German government wants to decouple from China.  But German companies can't afford to leave.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-- Donald Trump makes erratic and misleading claims about seizing Greenland, using robots as workers, slashing drug prices by impossible percentages, and taking foreign oil without legal authority</t>
+          <t>Major German companies are accelerating their capital investments and expansions in China.</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>474019</v>
+        <v>68464</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Inside China Business</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>478</v>
+        <v>342</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1261,38 +1261,34 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=77CKm5W3uJo</t>
+          <t>https://www.youtube.com/watch?v=5f59Kj9hU2s</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bill O'Reilly on Abraham Lincoln, Jesus, and Christmas</t>
+          <t>Pam Bondi CAUGHT in Epstein BOMBSHELL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bill talks about some of the history of Christmas you may not know about.</t>
+          <t xml:space="preserve">Democracy Watch episode 444: Justice Department caught in new Epstein coverup </t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7778</v>
+        <v>475288</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bill O'Reilly</t>
+          <t>Brian Tyler Cohen</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>363</v>
+        <v>645</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1307,38 +1303,34 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=C-sitwuRdlM</t>
+          <t>https://www.youtube.com/watch?v=xCssF6vNGwU</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>More Day Drinking with Sabrina Carpenter</t>
+          <t>What Trump Did To Venezuela</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>While day drinking in New York City, Seth and Sabrina Carpenter make drinks based on Sabrina's songs and play drinking games that involve identifying famous men based on their childhood photos and challenging each other to turn random phrases into innuendos.</t>
+          <t>In this video I am talking about what the US did in Venezuela and how crazy the situation was in there. Honestly this story is enough to fill a whole day worth of videos cause it has been crazy,</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>327035</v>
+        <v>9008</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Late Night with Seth Meyers</t>
+          <t>Omar Agamy</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1353,38 +1345,34 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=wCZNmHKFq_k</t>
+          <t>https://www.youtube.com/watch?v=CotBcp-jbTg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Uh, WTF did the DOJ just publish?</t>
+          <t>What Happened On Jan 2nd Is Wild</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-- A video briefly published by the Justice Department appears to depict Jeffrey Epstein on the day of his death and is later removed without a clear explanation</t>
+          <t>In this video we talk about some of the things that happened on January 2nd, and honestly crazy start of the year and it seems like things are only getting crazier and crazier.</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>169757</v>
+        <v>7473</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Omar Agamy</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>404</v>
+        <v>510</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1399,38 +1387,34 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=2kLtwrTteqY</t>
+          <t>https://www.youtube.com/watch?v=5OJrS2xAoBQ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BREAKING: Bombshell document ties Trump to Epstein</t>
+          <t>Bill O'Reilly &amp; Tim Graham on Internet Bias</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>For more from Brian Tyler Cohen:</t>
+          <t>Newsbusters.org and Media Research Center's Tim Graham joins Bill to discuss liberal bias on the internet.</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>279728</v>
+        <v>16439</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Brian Tyler Cohen</t>
+          <t>Bill O'Reilly</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>498</v>
+        <v>600</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1445,38 +1429,34 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=AkKow1ai2F0</t>
+          <t>https://www.youtube.com/watch?v=azAGvW91wss</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BOMBSHELL DOCUMENT: TRUMP “R*PED ME”</t>
+          <t>Aluminum prices soar on Trump tariffs, global shortages, and China supply chain moves</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-- Newly released Justice Department and FBI records include a rape allegation naming Donald J. Trump document his repeated association with Jeffrey Epstein</t>
+          <t>American buyers of aluminum are paying record spreads over global benchmarks, amid Trump's 50% tariffs and worldwide shortages of industrial metals.</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>317361</v>
+        <v>59336</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Inside China Business</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>466</v>
+        <v>409</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1491,38 +1471,34 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ATbs9E1KIuo</t>
+          <t>https://www.youtube.com/watch?v=-3nzKAcEvxk</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Trump issues CREEPY Christmas message to young girl</t>
+          <t>Trump SINKS TO NEW LOW in DISGUSTING STUNT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BREAKING #news - Trump fumbles in Christmas calls to children</t>
+          <t>Donald Trump publicly mocks the brutal assassination of a Democratic lawmaker, whose children publicly beg him to stop.</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>98139</v>
+        <v>43455</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Brian Tyler Cohen</t>
+          <t>Pondering Politics</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>483</v>
+        <v>626</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1537,38 +1513,34 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=dnlFPr5xCjE</t>
+          <t>https://www.youtube.com/watch?v=1ENHfPIBeEY</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Trump Christmas message A TOTAL NIGHTMARE</t>
+          <t>Marjorie Taylor Greene DISMANTLES Trump over Venezuela invasion</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-- Donald Trump posts overnight Truth Social messages threatening media critics and suggesting punishment for unfavorable coverage</t>
+          <t>BREAKING #news - Marjorie Taylor Greene exposes Trump’s Venezuela hypocrisy</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>61044</v>
+        <v>269151</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Brian Tyler Cohen</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>289</v>
+        <v>582</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1583,30 +1555,26 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=RChYV2KpVZk</t>
+          <t>https://www.youtube.com/watch?v=I0j1GlhZnx8</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>THIS PHOTO IS FAKE</t>
+          <t>A functional democracy would have removed Trump by now</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-- The White House releases a heavily edited Christmas card image that appears to conceal visible bruising on Donald Trump’s hand</t>
+          <t>-- Donald Trump remains in office despite actions that would remove leaders in functioning democracies, exposing institutional failures</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>52935</v>
+        <v>243306</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1614,7 +1582,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>326</v>
+        <v>477</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1629,38 +1597,34 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=jecThRUEFJw</t>
+          <t>https://www.youtube.com/watch?v=nZJ4Mz99qQY</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Trump CORNERED by his OWN pathetic lies</t>
+          <t>OMG: Marco Rubio asked question he CAN’T ANSWER</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-- Newly released Justice Department flight records directly contradict Donald Trump’s claim that he was never on Jeffrey Epstein’s plane</t>
+          <t>BREAKING #news - Marco Rubio can’t give legal rationale for Venezuela invasion</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>76291</v>
+        <v>420002</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Brian Tyler Cohen</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>467</v>
+        <v>587</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1675,38 +1639,34 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=mlgm-X8PAv0</t>
+          <t>https://www.youtube.com/watch?v=fLgZFbGt3KA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Trump tried to host a show. It DID NOT go well</t>
+          <t>🚨 STUNNING: Venezuela HUMILIATES Trump on LIVE TV</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-- Donald Trump hosts the Kennedy Center Honors after reshaping its leadership, turning a national arts ceremony into a self-centered spectacle</t>
+          <t>Venezuela's leadership, including interim president Delcy Rodriguez, publicly humiliated Donald Trump and rejected his claims they would roll over for him.</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>352751</v>
+        <v>681034</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Pondering Politics</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>396</v>
+        <v>632</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1721,38 +1681,34 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=FqQVJPjCkek</t>
+          <t>https://www.youtube.com/watch?v=vYS-7_3H0Ec</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Who could POSSIBLY fall for this stupidity?</t>
+          <t>1st Day Of 2026 Was CRAZY</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-- Trump allies selectively credit Donald Trump for positive economic data while blaming Joe Biden for inflation and negative indicators</t>
+          <t>So in this video I am telling you the major stories that happened on the first day of 2026, and honestly what a mess of a start, not the start that I expected though.</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>29116</v>
+        <v>8250</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Omar Agamy</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>309</v>
+        <v>611</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1767,30 +1723,26 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7X5NV_6rtq0</t>
+          <t>https://www.youtube.com/watch?v=qzue-WRW5MY</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>China quietly takes over another trillion dollar industry</t>
+          <t>China and Russia in the Arctic have NATO and Europe worried</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Remote sensing is an earth science that is critical for infrastructure, oil and gas, heavy construction, forestry, and urban planning.   Remote sensing is also vital in military applications.</t>
+          <t>NATO and European officials are deeply concerned, as China and Russia enjoy scientific, commercial, and military breakthroughs across the Arctic region.</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>80169</v>
+        <v>40120</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1798,7 +1750,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>441</v>
+        <v>513</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1813,38 +1765,34 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tFwX01b1WCw</t>
+          <t>https://www.youtube.com/watch?v=xged_Pzo35Q</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Measles CATASTROPHE as Trump CAN’T CONTROL monster he created</t>
+          <t>Trump VISIBLY STUNS Lindsey Graham in WEIRD RANT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-- Measles cases surge among unvaccinated populations as years of anti-vaccine rhetoric linked to Trump’s political movement collide with public health consequences</t>
+          <t>Donald Trump went on a weird rant which visibly stunned Lindsey Graham and also threatened to hurt blue states and cities.</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>47096</v>
+        <v>21313</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Pondering Politics</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>394</v>
+        <v>637</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1859,38 +1807,34 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Rn5cPZTQ8Ws</t>
+          <t>https://www.youtube.com/watch?v=Bq1PDD5SWS0</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>We JUST FOUND OUT what happens after Trump</t>
+          <t>China plus Russia plus Iran plus North Korea: builds 70% of the world's warships</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-- A leaked succession blueprint shows Trump allies planning a long-term pipeline of JD Vance, Charlie Kirk, and Donald Trump Jr to preserve Trumpism</t>
+          <t>China's dominance in commercial shipbuilding is hugely advantageous to the Chinese Navy, which is now the largest in the world.</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>193979</v>
+        <v>57764</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Inside China Business</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1905,38 +1849,34 @@
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=t7OzVfW9z3U</t>
+          <t>https://www.youtube.com/watch?v=XUCBoQLmwyQ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Trump suffers TOTAL MELTDOWN as leaks EXPLODE</t>
+          <t>🚨 BOMBSHELL: Rubio SCREWS Trump, ADMITS DEADLY VENEZUELA LEAK</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-- Donald Trump unleashes late-night attacks on the press, denies basic economic facts, and retroactively spins bad data as good</t>
+          <t>Marco Rubio confirms bombshell reporting that the Trump administration accidentally leaked sensitive war information about their Venezuela war to the press.</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>188175</v>
+        <v>150280</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Pondering Politics</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>393</v>
+        <v>569</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1951,38 +1891,34 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8tPPmbkX7fo</t>
+          <t>https://www.youtube.com/watch?v=Xj8JGZVgYFQ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Trump FREAKS OUT over Epstein in Christmas night MELTDOWN</t>
+          <t>Marco Rubio ENDS CAREER by HUMILIATING Trump on LIVE TV</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BREAKING #news - Trump complains about Epstein in Christmas night message</t>
+          <t>Marco Rubio once again accidentally humiliated Donald Trump on live TV.</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>448617</v>
+        <v>245636</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Brian Tyler Cohen</t>
+          <t>Pondering Politics</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>499</v>
+        <v>693</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1997,38 +1933,34 @@
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MtKY0FESyAc</t>
+          <t>https://www.youtube.com/watch?v=1BU_O3mQkKI</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>They were clearly not ready for this</t>
+          <t>Trump gets BRUTALLY EXPOSED amid Venezuela invasion | Another Day</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-- A Fox News segment sees Jessica Tarlov center Epstein survivor Maria Farmer, exposing fractures inside Fox’s audience</t>
+          <t xml:space="preserve">Trump gets unwelcome SURPRISE amid Venezuela invasion | Another Day </t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>298959</v>
+        <v>45972</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Brian Tyler Cohen</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>362</v>
+        <v>511</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2043,38 +1975,34 @@
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=HKHbhXcdGHg</t>
+          <t>https://www.youtube.com/watch?v=DOmh6EPMeCY</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fox News can’t keep its Epstein coalition together #shorts</t>
+          <t>"What Would You Do?" — Bill O'Reilly Dissects Kamala Harris' Reaction to Venezuela</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Become a Member: https://www.davidpakman.com/membership</t>
+          <t>Subscribe to never miss an episode of No Spin News with Bill O'Reilly: https://www.youtube.com/channel/UC4OvD2yIbofl9l4dIlqSNMw</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>141656</v>
+        <v>31521</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Bill O'Reilly</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2089,30 +2017,26 @@
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Cl6kta4Blcc</t>
+          <t>https://www.youtube.com/watch?v=UUrO5jWKlGU</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The anatomy of a Trumpian lie</t>
+          <t>Trump is about to get REJECTED</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-- Commerce Secretary Howard Lutnick falsely claims on Fox News that GDP growth guarantees higher wages and the segment explains how deliberate economic lies are normalized on conservative media</t>
+          <t>-- Donald Trump bets the Maduro seizure will unlock Venezuela’s oil, but allies, businesses, and markets resist a plan with no clear political transition</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>26422</v>
+        <v>155550</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2120,7 +2044,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2135,38 +2059,34 @@
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JwsMjulZTas</t>
+          <t>https://www.youtube.com/watch?v=FAn7bWn1uUM</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>More countries prefer to borrow RMB instead of US dollars:  lower costs, bigger investments</t>
+          <t>Will Trump Steal Greenland</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>More countries are converting their USD-denominated loans into RMB debt.</t>
+          <t>In this video I talk about what happened on the 4th of January! The craziest is Trump wanting Greenland and honestly not something I expected!</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>54010</v>
+        <v>1452</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Inside China Business</t>
+          <t>Omar Agamy</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>435</v>
+        <v>666</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2181,149 +2101,7 @@
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=KGZ7_fJWcCE</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Trump officials revive the dumbest anti-wind talking point #shorts</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Become a Member: https://www.davidpakman.com/membership</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>3835</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>David Pakman Show</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>180</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>简体中文</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=jp50tQX43ms</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>He CANNOT CONTROL himself, and it’s a sickness</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>-- Stephen Miller repeatedly makes false claims about inflation, COVID lockdowns, and deportations, using dehumanizing rhetoric that goes unchecked and escalates extremist narratives</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>92291</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>David Pakman Show</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>353</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>简体中文</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=jFVolN0zlfw</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>You’re not dumb enough to fall for this, right?</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>-- Interior Secretary Doug Burgum misleads audiences about wind energy reliability and national security while ignoring grid diversification, storage technology, and documented fossil fuel failures</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>68037</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>David Pakman Show</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>459</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>简体中文</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/batch/tasks_setting.xlsx
+++ b/batch/tasks_setting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,21 +488,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=QdcoDUGLe14</t>
+          <t>https://www.youtube.com/watch?v=XmYmSHvSb_M</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colombia orders military deployment near border with Venezuela</t>
+          <t>Minneapolis mayor says city tensions are ‘not sustainable’</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CNN's David Culver reports from the border of Venezuela and Colombia where the Colombian government has ordered a military deployment after Nicolás Maduro was captured by US forces. #cnn #colombia #militarydeployed #venezuelanborder</t>
+          <t>Minneapolis Mayor Jacob Frey called the situation in the city “not sustainable,” as tensions flare after a federal law enforcement officer shot someone the DHS says assaulted them.
+0:00 Minneapolis M</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38742</v>
+        <v>11094</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,7 +511,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>133</v>
+        <v>531</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -527,36 +528,36 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Error: Unhandled exception - Number of videos found 0 is not unique. Please check.</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=yeMW7YHSlH0</t>
+          <t>https://www.youtube.com/watch?v=aIb3Wk7oWqs</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>'Profound feeling of uncertainty' in Venezuela over what comes next</t>
+          <t>Sen. Fetterman reveals if he would ever change political parties</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WIth Venezuelan President Nicolás Maduro in U.S. custody there are growing questions over what comes next for the country. MS NOW Reporter David Noriega has the latest updates on how Venezuelans are feeling right now. Retired Colonel Jack Jacobs joins Ana Cabrera to share his reaction.</t>
+          <t>Sen. John Fetterman, D-Pa., explains why his role as a senator for the ‘most purple state in the country’ has impacted his political responsibility on ‘The Will Cain Show.’ #fox #media #breakingnews #</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5421</v>
+        <v>30856</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MS NOW</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>356</v>
+        <v>481</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -580,29 +581,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OeCUwdAtYvw</t>
+          <t>https://www.youtube.com/watch?v=0_-CHIfZyt8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marc Caputo: Trump made sure Rubio was secretary of state in part due to his Venezuela policy</t>
+          <t>BOMBSHELL Greenland update ROCKS the world</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Axios' Marc Caputo joins Morning Joe to discuss his latest piece 'Marco Rubio's Venezuela Moment'.</t>
+          <t>BREAKING #news - Trump continues to threaten Greenland 
+For more from Brian Tyler Cohen:
+Straight-news titled YouTube: https://www.youtube.com/@briantylercohennews
+YouTube (español): https://www.yout</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18061</v>
+        <v>474168</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MS NOW</t>
+          <t>BTC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>298</v>
+        <v>567</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -619,36 +623,36 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Error: Unhandled exception - Number of videos found 0 is not unique. Please check.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=p3ABhKBMfMI</t>
+          <t>https://www.youtube.com/watch?v=EGU9yQKvB6I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Trump 'promised he'd be a peacetime president': Oversight Dem reacts to Maduro capture</t>
+          <t>Trump’s ICE REAL PLAN is REVEALED after MURDER</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Venezuelan President Nicolás Maduro was captured by U.S. forces on Saturday and will now be arraigned on federal drug charges in a New York courthouse. Rep. Suhas Subramanyam (D-VA), member of the House Oversight Committee, joins Ana Cabrera to discuss the Trump administration's handling of the situation.</t>
+          <t>What’s happening in Minnesota isn’t just an immigration crackdown — it’s a warning. Under the Trump regime, immigration enforcement has shifted from border control to full-scale internal policing. ICE</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5959</v>
+        <v>99615</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MS NOW</t>
+          <t>MeidasTouch</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>244</v>
+        <v>638</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -672,29 +676,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=xPU8XlPYF_0</t>
+          <t>https://www.youtube.com/watch?v=7bU_dqGx2rs</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Joe: Trump must explain how Venezuela move makes Americans’ lives better</t>
+          <t>Protests Break Out In Minneapolis After Federal Agents Shoot Man During Arrest</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>As President Trump ramps up rhetoric toward Venezuela, Joe Scarborough questions how the move actually helps Americans — warning that voters focused on affordability and daily costs aren’t asking for another foreign crisis.</t>
+          <t>Protesters clashed with federal agents overnight in Minneapolis after a federal law enforcement officer shot a man in the leg while trying to make an arrest during a traffic stop on Wednesday night, p</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3291</v>
+        <v>2114</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MS NOW</t>
+          <t>Forbes Breaking News</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -718,29 +722,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=2h9WArOjHn4</t>
+          <t>https://www.youtube.com/watch?v=SKYg9LeZ1I0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dana Perino: Trump ‘MEANS BUSINESS’</t>
+          <t>Trump voters ABANDON Trump in SHOCK update | Another Day</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>'America's Newsroom' co-anchor Dana Perino joins 'Fox &amp; Friends' to react to Nicolás Maduro's arrest and the broader global impact as President Donald Trump protects U.S. interests abroad.</t>
+          <t>Trump voters ABANDON Trump in SHOCK update | Another Day
+For more from Brian Tyler Cohen:
+Straight-news titled YouTube: https://www.youtube.com/@briantylercohennews
+YouTube (español): https://www.you</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13744</v>
+        <v>207496</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fox News</t>
+          <t>BTC</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>266</v>
+        <v>534</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -757,36 +764,36 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Error: 📝 Summarizing and translating - Error code: 400 - {'error': {'code': 'security_audit_fail', 'message': '模型返回内容中有违规内容，已暂停输出', 'type': 'security_error'}}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=mMQz12O2DV4</t>
+          <t>https://www.youtube.com/watch?v=qNDAz5yNbNQ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Harris Faulkner: The writing on the wall is VERY clear here...</t>
+          <t>Trump Lie BLOWN UP by Affidavit from TOP OFFICIAL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fox News' Steve Harrigan reports the latest on the impact of the Maduro capture on Colombia. Rick De La Torre, who was a CIA station chief in Caracas, also joined 'The Faulkner Focus' to discuss the aftermath and more. #foxnews #world #news #venezuela #politics </t>
+          <t>In breaking news, the Trump Administration has told a federal judge that they refuse to comply with his order to provide Due Process and Habeas Corpus rights to 137 Venezuelans that the Administration</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>91403</v>
+        <v>184869</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fox News</t>
+          <t>MeidasTouch</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>393</v>
+        <v>813</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -803,36 +810,38 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Error: Unhandled exception - Number of videos found 0 is not unique. Please check.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=qYk-K8lhZHc</t>
+          <t>https://www.youtube.com/watch?v=xoGsTyaUS0M</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Trump invaded Venezuela because Maduro was dancing</t>
+          <t>SHOCK MOMENT: Hawley Gets Increasingly Fed Up With Doc Asking Over &amp; Over If Men Can Get Pregnant</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-- Reporting says Donald Trump escalates to military action after Nicolás Maduro dances on Venezuelan state television and aides treat it as personal mockery</t>
+          <t>At Wednesday's Health Committee hearing, Sen. Josh Hawley (R-MO) repeatedly grilled Dr. Nisha Verma about whether men can get pregnant.
+Stay Connected
+Forbes Breaking News on X: https://x.com/ForbesT</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6492</v>
+        <v>1394</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Forbes Breaking News</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -849,36 +858,37 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Error: Unhandled exception - Number of videos found 0 is not unique. Please check.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=sy8ncMFEPdE</t>
+          <t>https://www.youtube.com/watch?v=qy3n8Fjt1u0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Trump invaded Venezuela… because Maduro danced? #shorts</t>
+          <t>Trump decline EXPOSED by heckler!</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Become a Member: https://www.davidpakman.com/membership</t>
+          <t>-- Donald Trump melts down at a Ford factory after UAW worker TJ Sabula calls him out publicly and Trump responds with obscenities and a middle finger
+🛡️ Incogni lets you control your personal data! G</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35391</v>
+        <v>111307</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>The David Pakman Show</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>148</v>
+        <v>396</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -895,36 +905,36 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Error: 🎥 Processing input file - ERROR: [youtube] qy3n8Fjt1u0: Requested format is not available. Use --list-formats for a list of available formats</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gx3C_a6GKtw</t>
+          <t>https://www.youtube.com/watch?v=_m9gi5A0A6A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Trump thinks he’s going to trick you with this</t>
+          <t>ICE agent 'ambushed,' ATTACKED with a shovel before shooting a man in the leg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-- Donald Trump repeatedly claims he inherited a broken economy despite taking office amid falling inflation and strong employment, then blames Joe Biden</t>
+          <t xml:space="preserve">Fox News' Chanley Painter reports the latest on the ICE-involved shooting in Minneapolis. Retired FBI supervisory special agent Jason Pack joined 'Fox &amp; Friends First' to discuss the incident and why </t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>67864</v>
+        <v>245663</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -941,36 +951,36 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Error: 🎥 Processing input file - ERROR: [youtube] _m9gi5A0A6A: Requested format is not available. Use --list-formats for a list of available formats</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9rRNJYnh-J0</t>
+          <t>https://www.youtube.com/watch?v=DFBzFi-k7XU</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>They’ve already DESTROYED Charlie Kirk</t>
+          <t>Most U.S. Lawmakers and Danish Parliament REJECT Trump's Plan To Acquire Greenland | SUNRISE RECAP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-- The MAGA movement exploits Charlie Kirk’s assassination for fundraising and branding while abandoning his legacy and losing his former audience to more extreme figures</t>
+          <t>U.S. Representative Madeline Dean (D-PA) and member of the Danish Parliament Sascha Faxe discuss Trump's plan to acquire Greenland with Sunrise On The Hill hosts Cory Smith and Hillary Howard. Both la</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>277021</v>
+        <v>1163</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>The Hill</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>331</v>
+        <v>184</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -987,36 +997,36 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Error: Unhandled exception - Number of videos found 0 is not unique. Please check.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=FaEWduvpsWQ</t>
+          <t>https://www.youtube.com/watch?v=2ce-VZYQK4Y</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>This one is really going to trigger Trump</t>
+          <t>Denmark, France sending troops to Greenland as tensions with US escalate | Sunrise</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-- Donald Trump’s elastic definition of ending wars collapses when applied consistently, revealing that by Trump’s own standards Barack Obama would qualify as having ended far more conflicts</t>
+          <t>Senate Republicans are vowing to block any effort by President Trump to seize Greenland by military force, as Trump officials on Wednesday refused to back off their demands to control the island durin</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>171136</v>
+        <v>5664</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>The Hill</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>392</v>
+        <v>498</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1033,36 +1043,36 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Error: Unhandled exception - Number of videos found 0 is not unique. Please check.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=uHryJYcm5Jg</t>
+          <t>https://www.youtube.com/watch?v=D_6_S7Gzoy8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>They’re OUT OF IDEAS and they’re about to SCREW YOU</t>
+          <t>Person shot in leg by federal law enforcement in Minneapolis after assaulting an officer, DHS says</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-- Trump administration allies promote 50-year mortgages that lower monthly payments while massively increasing lifetime costs, trapping buyers in long-term debt</t>
+          <t xml:space="preserve">A person was shot in the leg by a federal law enforcement officer in Minneapolis after resisting arrest and “violently assaulting” an officer, the Department of Homeland Security said in a statement, </t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>39117</v>
+        <v>152916</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>321</v>
+        <v>658</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1086,29 +1096,31 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=6vw4hKAzo0k</t>
+          <t>https://www.youtube.com/watch?v=VVwX2Uw1Q1E</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Revolutionary generator transforms Chinese factories into power plants</t>
+          <t>'Who Ordered The Removal Of The 500 Bike Racks And Why?': Hageman Grills Ex-FBI Agents About Jan. 6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Chinese engineers deployed the world's first commercially viable sCO2 power generators, at a steel mill in Guizhou.</t>
+          <t>At Wednesday's House Select Committee on Jan. 6 hearing, Rep. Harriet Hageman (R-WY) questioned witnesses about questions surrounding the Jan. 6 Capitol Riot.
+Stay Connected
+Forbes Breaking News on X</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>33642</v>
+        <v>6813</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inside China Business</t>
+          <t>Forbes Breaking News</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1132,29 +1144,30 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=qo8QnxqF92Y</t>
+          <t>https://www.youtube.com/watch?v=jVxsHE_k2Lk</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AI is revolutionizing Chinese coal production, and blowing up labor models everywhere else</t>
+          <t>Joe Rogan exposes Trump BRUTALLY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Coal prices are in steep decline across the world, and that should translate to collapsing profitability for coal miners.</t>
+          <t>-- Joe Rogan condemns ICE violence and militarized enforcement while describing the killing of Renee Nicole Good as horrifying and unjustifiable
+Become a Member: https://www.davidpakman.com/membership</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63034</v>
+        <v>98353</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inside China Business</t>
+          <t>The David Pakman Show</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1178,29 +1191,29 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OKQMER75Vms</t>
+          <t>https://www.youtube.com/watch?v=DBACSrE9jls</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>China wants to mass-produce space rockets like cars</t>
+          <t>'Permission slip to violence': Democrats ESCALATE anti-ICE attacks</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">China is moving to a lean manufacturing model to mass produce space vehicles. </t>
+          <t>Joe Concha reacts after Rep. Angie Craig compares today’s America to 1930s Germany, warning that rhetoric against ICE can inflame tensions as Minnesota faces unrest and an officer injury remains under</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>72098</v>
+        <v>27122</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inside China Business</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1217,36 +1230,36 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Error: 📝 Summarizing and translating - 'origin'</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=2wq4EMVoKuM</t>
+          <t>https://www.youtube.com/watch?v=amlLBPftos8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The German government wants to decouple from China.  But German companies can't afford to leave.</t>
+          <t>BREAKING: Iranian protester no longer sentenced to death after Trump warnings</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Major German companies are accelerating their capital investments and expansions in China.</t>
+          <t>Fox News' Lucas Tomlinson reports the latest on escalation in Iran. Former State Department Deputy Special Envoy Ellie Cohanim joined 'Fox &amp; Friends First'  to discuss the Trump administration's possi</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>68464</v>
+        <v>369730</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inside China Business</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>342</v>
+        <v>464</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1261,34 +1274,38 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5f59Kj9hU2s</t>
+          <t>https://www.youtube.com/watch?v=_u0jAgOd5ko</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pam Bondi CAUGHT in Epstein BOMBSHELL</t>
+          <t>Trump LOSES IT as UTTER MADNESS Takes Over MAR A LAGO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Democracy Watch episode 444: Justice Department caught in new Epstein coverup </t>
+          <t>MeidasTouch host Ben Meiselas reports on Donald Trump losing it as utter madness engulfs his failed presidency and his collapsing term as Americas are sick of him and as fb entire world united against</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>475288</v>
+        <v>319664</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Brian Tyler Cohen</t>
+          <t>MeidasTouch</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>645</v>
+        <v>791</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1303,34 +1320,39 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Error: 📝 Summarizing and translating - Error code: 400 - {'error': {'code': 'security_audit_fail', 'message': '模型返回内容中有违规内容，已暂停输出', 'type': 'security_error'}}</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=xCssF6vNGwU</t>
+          <t>https://www.youtube.com/watch?v=U7dE_MsU61M</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>What Trump Did To Venezuela</t>
+          <t>Trump VISIBLY CONFUSED as audience SILENT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>In this video I am talking about what the US did in Venezuela and how crazy the situation was in there. Honestly this story is enough to fill a whole day worth of videos cause it has been crazy,</t>
+          <t>-- Donald Trump rambles through false claims about tariffs and the economy as a Michigan audience sits in stunned silence and reacts only to fabricated talking points
+⚠️ Ground News: Get 40% OFF their</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9008</v>
+        <v>455527</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Omar Agamy</t>
+          <t>The David Pakman Show</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>483</v>
+        <v>572</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1345,34 +1367,39 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Error: 📝 Summarizing and translating - Error code: 400 - {'error': {'code': 'security_audit_fail', 'message': '模型返回内容中有违规内容，已暂停输出', 'type': 'security_error'}}</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=CotBcp-jbTg</t>
+          <t>https://www.youtube.com/watch?v=crqIOvXtwjI</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>What Happened On Jan 2nd Is Wild</t>
+          <t>Trump’s most embarrassing interview of all time</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>In this video we talk about some of the things that happened on January 2nd, and honestly crazy start of the year and it seems like things are only getting crazier and crazier.</t>
+          <t>-- Donald Trump gives incoherent answers to CBS host Tony Dokoupil while minimizing the death of Renee Good and claiming his power is limited only by his morality
+Become a Member: https://www.davidpak</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7473</v>
+        <v>159225</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Omar Agamy</t>
+          <t>The David Pakman Show</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>510</v>
+        <v>632</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1387,34 +1414,38 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Error: 📝 Summarizing and translating - Error code: 400 - {'error': {'code': 'security_audit_fail', 'message': '模型返回内容中有违规内容，已暂停输出', 'type': 'security_error'}}</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5OJrS2xAoBQ</t>
+          <t>https://www.youtube.com/watch?v=C8qK4oyr_Fw</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bill O'Reilly &amp; Tim Graham on Internet Bias</t>
+          <t>BREAKING: Trump admin hits Iranian officials with new sanctions</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Newsbusters.org and Media Research Center's Tim Graham joins Bill to discuss liberal bias on the internet.</t>
+          <t>Chief national security corresponsent Jennifer Griffin provides details on the Trump administration's new sanctions on Iranian officials. GOP California gubernatorial candidate Steve Hilton joins 'The</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>16439</v>
+        <v>103018</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bill O'Reilly</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1429,34 +1460,39 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=azAGvW91wss</t>
+          <t>https://www.youtube.com/watch?v=kx-WWsM-DlI</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Aluminum prices soar on Trump tariffs, global shortages, and China supply chain moves</t>
+          <t>Trump REVEALS cognitive decline, unable to answer questions</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>American buyers of aluminum are paying record spreads over global benchmarks, amid Trump's 50% tariffs and worldwide shortages of industrial metals.</t>
+          <t>-- Donald Trump struggles through basic questions about tariffs, Iran, and the Federal Reserve while displaying visible confusion and disorientation
+Become a Member: https://www.davidpakman.com/member</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>59336</v>
+        <v>63334</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inside China Business</t>
+          <t>The David Pakman Show</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1471,34 +1507,41 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=-3nzKAcEvxk</t>
+          <t>https://www.youtube.com/watch?v=ahoUTiPPimI</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Trump SINKS TO NEW LOW in DISGUSTING STUNT</t>
+          <t>Republicans get BAD NEWS amid Justice Department announcement</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Donald Trump publicly mocks the brutal assassination of a Democratic lawmaker, whose children publicly beg him to stop.</t>
+          <t>INTERVIEW: Rep. Moskowitz condemns Trump’s overreach
+For more from Brian Tyler Cohen:
+Straight-news titled YouTube: https://www.youtube.com/@briantylercohennews
+YouTube (español): https://www.youtube</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>43455</v>
+        <v>174370</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pondering Politics</t>
+          <t>BTC</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>626</v>
+        <v>793</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,34 +1556,41 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=1ENHfPIBeEY</t>
+          <t>https://www.youtube.com/watch?v=f_23jPTE8KE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Marjorie Taylor Greene DISMANTLES Trump over Venezuela invasion</t>
+          <t>'Can Men Get Pregnant?': Ashley Moody Does Not Let Up On Democrats' Witness</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BREAKING #news - Marjorie Taylor Greene exposes Trump’s Venezuela hypocrisy</t>
+          <t>At Wednesday's Health Committee hearing, Sen. Ashley Moody (R-FL) grilled Dr. Nisha Verma about whether men can get pregnant.
+Stay Connected
+Forbes Breaking News on X: https://x.com/ForbesTVNews
+Forb</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>269151</v>
+        <v>4544</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Brian Tyler Cohen</t>
+          <t>Forbes Breaking News</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>582</v>
+        <v>340</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1555,34 +1605,39 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=I0j1GlhZnx8</t>
+          <t>https://www.youtube.com/watch?v=jVDwjG7TA38</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A functional democracy would have removed Trump by now</t>
+          <t>What is the Insurrection Act? Inside Trump's threat</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-- Donald Trump remains in office despite actions that would remove leaders in functioning democracies, exposing institutional failures</t>
+          <t>President Donald Trump warned he might invoke the centuries-old Insurrection Act to deploy US troops to Minnesota as state and federal officials clash over tactics used by immigration agents.
+CNN's A</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>243306</v>
+        <v>74346</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>477</v>
+        <v>605</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1597,34 +1652,39 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=nZJ4Mz99qQY</t>
+          <t>https://www.youtube.com/watch?v=T4kMtRn7YEs</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>OMG: Marco Rubio asked question he CAN’T ANSWER</t>
+          <t>Insurrection Act may be only way to end Minnesota chaos: Jonathan Fahey</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BREAKING #news - Marco Rubio can’t give legal rationale for Venezuela invasion</t>
+          <t xml:space="preserve">Former Acting ICE Director Jonathan Fahey weighs in on Minnesota’s ICE protests, arguing state officials are obstructing federal law enforcement and warning the Insurrection Act may be the next step.
+</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>420002</v>
+        <v>22490</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Brian Tyler Cohen</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>587</v>
+        <v>293</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1639,34 +1699,40 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=fLgZFbGt3KA</t>
+          <t>https://www.youtube.com/watch?v=ICt9_XGfBlM</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>🚨 STUNNING: Venezuela HUMILIATES Trump on LIVE TV</t>
+          <t>JUST IN: Durbin Calls To Subpoena Noem If She Refuses To Come Before Senate Judiciary Committee</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Venezuela's leadership, including interim president Delcy Rodriguez, publicly humiliated Donald Trump and rejected his claims they would roll over for him.</t>
+          <t>At today's Senate Judiciary Committee hearing, Sen. Dick Durbin (D-IL) called for DHS Sec. Kristi Noem to testify before the Committee or face a subpoena.
+Stay Connected
+Forbes Breaking News on X: ht</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>681034</v>
+        <v>1956</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pondering Politics</t>
+          <t>Forbes Breaking News</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>632</v>
+        <v>575</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1681,34 +1747,40 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vYS-7_3H0Ec</t>
+          <t>https://www.youtube.com/watch?v=nrvtdEylbCY</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1st Day Of 2026 Was CRAZY</t>
+          <t>FBI RAIDS WaPo Reporter's HOME Amid Pentagon LEAK Investigation | RISING</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>So in this video I am telling you the major stories that happened on the first day of 2026, and honestly what a mess of a start, not the start that I expected though.</t>
+          <t>Robby Soave and Lindsey Granger discuss a Washington Post report whose home was searched by FBI agents as part of a classified information probe. #FBI #WashingtonPost #PamBondi   
+About Rising: 
+Risi</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>8250</v>
+        <v>4226</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Omar Agamy</t>
+          <t>The Hill</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>611</v>
+        <v>476</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1723,34 +1795,39 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=qzue-WRW5MY</t>
+          <t>https://www.youtube.com/watch?v=PwKui0CJRY8</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>China and Russia in the Arctic have NATO and Europe worried</t>
+          <t>Ford Worker SUSPENDED After HECKLING Trump | RISING</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NATO and European officials are deeply concerned, as China and Russia enjoy scientific, commercial, and military breakthroughs across the Arctic region.</t>
+          <t>Robby Soave and Lindsey Granger discuss a Michigan auto worker at Ford Motors who was caught heckling President Trump had donations pouring in for his support. #Michigan #FordMotors #Trump 
+About Ris</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>40120</v>
+        <v>1820</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Inside China Business</t>
+          <t>The Hill</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1765,34 +1842,38 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Error: 📝 Summarizing and translating - Error code: 400 - {'error': {'code': 'security_audit_fail', 'message': '模型返回内容中有违规内容，已暂停输出', 'type': 'security_error'}}</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=xged_Pzo35Q</t>
+          <t>https://www.youtube.com/watch?v=JFocDYEzjcs</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Trump VISIBLY STUNS Lindsey Graham in WEIRD RANT</t>
+          <t>'You let your city burn': Noem says Walz REJECTED federal help amid rising tensions</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Donald Trump went on a weird rant which visibly stunned Lindsey Graham and also threatened to hurt blue states and cities.</t>
+          <t>Homeland Security Secretary Kristi Noem joins ‘America’s Newsroom’ to discuss her recent call with Gov. Tim Walz, protests and ICE enforcement in Minnesota and President Donald Trump's authority under</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21313</v>
+        <v>18704</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pondering Politics</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>637</v>
+        <v>428</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1807,34 +1888,38 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Bq1PDD5SWS0</t>
+          <t>https://www.youtube.com/watch?v=dc_ffoMZNmY</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>China plus Russia plus Iran plus North Korea: builds 70% of the world's warships</t>
+          <t>Doctor STUNS refusing to answer whether men can get pregnant</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>China's dominance in commercial shipbuilding is hugely advantageous to the Chinese Navy, which is now the largest in the world.</t>
+          <t>Conservative commentator Allie Beth Stuckey joined 'Fox &amp; Friends' to discuss Sen. Josh Hawley pressing an OBGYN about whether or not men can get pregnant and the legal fight for fairness in women's s</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>57764</v>
+        <v>7791</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Inside China Business</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>494</v>
+        <v>274</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1849,34 +1934,38 @@
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=XUCBoQLmwyQ</t>
+          <t>https://www.youtube.com/watch?v=72mqtEl1FIY</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>🚨 BOMBSHELL: Rubio SCREWS Trump, ADMITS DEADLY VENEZUELA LEAK</t>
+          <t>Leavitt Explains Trump's 'Great Healthcare Plan' As Congress Grapples Over ACA Subsidies | TRENDING</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Marco Rubio confirms bombshell reporting that the Trump administration accidentally leaked sensitive war information about their Venezuela war to the press.</t>
+          <t>President Trump on Thursday unveiled an affordability framework for health care aimed at lowering drug prices and insurance premiums, as he seeks to address a major Republican political liability ahea</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>150280</v>
+        <v>2081</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pondering Politics</t>
+          <t>The Hill</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>569</v>
+        <v>152</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1891,34 +1980,41 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Xj8JGZVgYFQ</t>
+          <t>https://www.youtube.com/watch?v=P2UhtYBERmE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Marco Rubio ENDS CAREER by HUMILIATING Trump on LIVE TV</t>
+          <t>Karoline Leavitt calls Renee Good a “deranged lunatic” on Fox News #shorts</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Marco Rubio once again accidentally humiliated Donald Trump on live TV.</t>
+          <t>Become a Member: https://www.davidpakman.com/membership
+Subscribe to our (FREE) Substack newsletter: https://substack.davidpakman.com
+Get David's book: https://davidpakman.com/book
+Instagram https://</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>245636</v>
+        <v>11674</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pondering Politics</t>
+          <t>The David Pakman Show</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>693</v>
+        <v>164</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1933,34 +2029,41 @@
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=1BU_O3mQkKI</t>
+          <t>https://www.youtube.com/watch?v=FW3-bcOGkDM</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Trump gets BRUTALLY EXPOSED amid Venezuela invasion | Another Day</t>
+          <t>JUST IN: Karoline Leavitt Calls Out CNN Coverage Of Minneapolis Unrest During Press Briefing</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trump gets unwelcome SURPRISE amid Venezuela invasion | Another Day </t>
+          <t>At her press briefing, Karoline Leavitt slammed a CNN chyron from the anti-ICE unrest in Minneapolis, Minnesota.
+Stay Connected
+Forbes Breaking News on X: https://x.com/ForbesTVNews
+Forbes Breaking N</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>45972</v>
+        <v>1545</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Brian Tyler Cohen</t>
+          <t>Forbes Breaking News</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>511</v>
+        <v>198</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1975,34 +2078,39 @@
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DOmh6EPMeCY</t>
+          <t>https://www.youtube.com/watch?v=qEk_za2_9BU</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"What Would You Do?" — Bill O'Reilly Dissects Kamala Harris' Reaction to Venezuela</t>
+          <t>Mother of Elon Musk’s son reacts to his threat for full custody</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Subscribe to never miss an episode of No Spin News with Bill O'Reilly: https://www.youtube.com/channel/UC4OvD2yIbofl9l4dIlqSNMw</t>
+          <t>Ashley St. Clair responds after Elon Musk says he’s seeking full custody of their child following her apology for past comments about the transgender community. 
+ 0:00 Report on controversy over Elon</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>31521</v>
+        <v>44983</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Bill O'Reilly</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>135</v>
+        <v>428</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2017,34 +2125,38 @@
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=UUrO5jWKlGU</t>
+          <t>https://www.youtube.com/watch?v=Q1uPCJMlMZ0</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Trump is about to get REJECTED</t>
+          <t>DOUBLING DOWN: Anti-ICE agitators clash with federal agents in Minneapolis</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-- Donald Trump bets the Maduro seizure will unlock Venezuela’s oil, but allies, businesses, and markets resist a plan with no clear political transition</t>
+          <t xml:space="preserve">Chief Border Patrol agent Greg Bovino gives an update on the phone from the Minneapolis protests on 'America Reports.' #fox #media #breakingnews #us #usa #new #news #breaking #foxnews #americareports </t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>155550</v>
+        <v>35959</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2059,34 +2171,38 @@
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=FAn7bWn1uUM</t>
+          <t>https://www.youtube.com/watch?v=t2w9GMNffTg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Will Trump Steal Greenland</t>
+          <t>This is DEEPLY insulting: Kayleigh McEnany</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>In this video I talk about what happened on the 4th of January! The craziest is Trump wanting Greenland and honestly not something I expected!</t>
+          <t>‘The Five’ co-hosts lament a doctor failing to give a direct answer on male pregnancy during a Senate hearing. #fox #media #breakingnews #us #usa #new #news #breaking #foxnews #thefive #politics #poli</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1452</v>
+        <v>18474</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Omar Agamy</t>
+          <t>Fox News</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>666</v>
+        <v>472</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2101,7 +2217,3336 @@
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=j3xvozFUGQs</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Did you do insider trading? Congresswoman: IMPLODES</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-- Representative Lisa McClain defends her husband’s purchase of private xAI shares before a Pentagon contract announcement
+Become a Member: https://www.davidpakman.com/membership
+Subscribe to our (F</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>44855</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>340</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=pg6MYOWRugY</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Hannity: Walz INFLAMES ICE tensions, accuses agents of racism</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Fox News host Sean Hannity lays out I.C.E. agents' 'incredibly difficult' task in the face of mounting threats on 'Hannity.' #fox #media #breakingnews #us #usa #new #news #breaking #foxnews #hannity #</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>65725</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>332</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Error: 📝 Summarizing and translating - Error code: 400 - {'error': {'code': 'security_audit_fail', 'message': '模型返回内容中有违规内容，已暂停输出', 'type': 'security_error'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=q3BhH-G0DXI</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Kennedy: These are NOT countries behaving like allies</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>‘Gutfeld!’ panelists discuss different NATO countries sending troops to Greenland after President Donald Trump’s comments. #fox #media #breakingnews #us #usa #new #news #breaking #foxnews #gutfeld #po</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>9525</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>416</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=GF9w1y6WbSk</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Kayleigh McEnany: This is the INSANE place our society is at</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>The 'Outnumbered' panel discusses the exchange between Sen. Josh Hawley, R-Ark., and Dr. Nisha Verma during a Senate hearing. #fox #media #breakingnews #us #usa #new #news #breaking #foxnews #outnumbe</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3809</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>368</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=yaOo04amgCc</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Keane: US to put Iranian regime on 'PATHWAY TO COLLAPSE'</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fox News correspondent Aishah Hasnie and Ret. Gen. Jack Keane join 'Fox &amp; Friends' to discuss the U.S. deployment of military and naval assets to the Middle East amid deadly mass protests in Iran and </t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>8937</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>475</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=JyGBYEetF8w</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Trump demands NATO help seize Greenland #shorts</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Become a Member: https://www.davidpakman.com/membership
+Subscribe to our (FREE) Substack newsletter: https://substack.davidpakman.com
+Get David's book: https://davidpakman.com/book
+Instagram https://</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>15339</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>159</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=fsvV6B47F3E</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Trump admin admits 'mistake' after deporting college student</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>The Trump administration apologized in court for a 'mistake' in the deportation of a Massachusetts college student who was detained trying to fly home to surprise her family for Thanksgiving, but stil</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>4920</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>403</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=fcnE_DGpQdE</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>'The Most Serious Existential Threat': Don Beyer Warns Of Last Nuclear Weapons Treaty Expiring</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Speaking on the House floor on Wednesday, Rep. Don Beyer (D-VA) warned about the consequences of the New START nuclear weapons treaty expiring. 
+Stay Connected
+Forbes Breaking News on X: https://x.co</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1340</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>361</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=MepqBqA8fOI</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>A piece of chicken, a piece of broccoli, and a tortilla</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>-- Donald Trump and his administration promote austerity diets and reduced consumption while refusing to address corporate price gouging, housing costs, and stagnant wages
+✉️ StartMail: Get 50% OFF fo</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>46264</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>453</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=cLHhS5_Yru8</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Noem gave us ‘ALL’ tools to protect agents: ICE director</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acting I.C.E. Director Todd Lyons criticizes Minnesota leadership not making an effort to tamper down protests across the state on ‘The Story.’ #fox #media #breakingnews #us #usa #new #news #breaking </t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>45343</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>337</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=cumtKh7Y5kA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Karl Rove: Why Dems are a bet to RETAKE the House</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Former White House deputy chief of staff Karl Rove joins 'America's Newsroom' to discuss predictions for the closely contested 2026 midterm elections and 2028 presidential election using history as a </t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>11512</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>268</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ujSESn5ew5Y</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Interim Venezuelan President HAS MEETING WITH CIA Director | TRENDING</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CIA Director John Ratcliffe met with Venezuela’s interim President Delcy Rodríguez on Thursday in Caracas, the same day President Trump met with Venezuelan opposition leader María Corina Machado at th</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>3304</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>The Hill</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>312</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Ue7e3ugObUU</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>'We've Gone Through The Looking Glass!': Ted Cruz Minces No Words In Response To Roske Sentence</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>At a Senate Judiciary Committee hearing last week, Sen. Ted Cruz (R-TX) sounded off on the sentence given to Sophie Roske, who was convicted of attempting to assassinate Justice Brett Kavanaugh.
+Fuel</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1789</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>418</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Error: 📝 Summarizing and translating - Error code: 400 - {'error': {'code': 'security_audit_fail', 'message': '模型返回内容中有违规内容，已暂停输出', 'type': 'security_error'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=NZ2Ppi1pmio</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>'NO BLAME': Renee Good's former father-in-law speaks out on death</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Renee Good's former father-in-law Tim Macklin Sr. joins 'Fox &amp; Friends' to discuss her death, give an update on his grandson and react to the Minnesota protesters acting 'in her name.'
+Don’t just wat</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>56018</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>319</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=oJQAqIxw1qA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>European Allies SEND TROOPS TO GREENLAND Amid TRUMP THREATS | RISING</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lindsey Granger and Amber Duke discuss European troops arriving in Greenland in support of Denmark amid President Trump's continued interests in acquiring the Artic island. #Greenland #Trump #Denmark </t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>6331</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>The Hill</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>298</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=8glY1aYsQIs</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Reporter Asks Ilhan Omar For Message To 'Protesters Who Were Doing Unlawful Acts'</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>During a press conference on Friday, Rep. Ilhan Omar (D-MN) was asked about unlawful acts allegedly committed by protestors.
+Stay Connected
+Forbes Breaking News on X: https://x.com/ForbesTVNews
+Forbe</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3779</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>401</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=q-UBRfSJ598</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Trump is not going to like this one</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>-- Trump adviser Peter Navarro falsely blames undocumented immigrants for nationwide rent increases using fabricated numbers and nonsensical economic math
+Become a Member: https://www.davidpakman.com/</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>97550</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>454</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=sh1Utmsit6M</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>This is a HUGE sign to the Iranian protestors that we still support them: Retired general</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Retired Air Force Brig. Gen. John Teichert discusses what the U.S. deployment of additional military assets to the Middle East could mean for Iranian protesters on 'America Reports.' #fox #media #brea</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>153200</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>448</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=UGhFdiZpDKc</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Should Trump to do Insurrection Act? Republican: He might have to</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-- Republican Rep. Andrew Garbarino struggles to criticize Donald Trump while entertaining the use of the Insurrection Act against Americans
+🥄 Use code PAKMAN for $5 off Magic Spoon at https://magicsp</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>5526</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>402</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=pZxUq1by6Ig</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>'DEMS MUST REMEMBER': It would be 'UNWISE' to do this, political expert warns</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Fox News contributor Mollie Hemingway analyzes how the Democrats will handle the border issue as they campaign to win the midterm elections on 'America Reports.'#foxnews #news #us #fox #fox #media #br</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>9822</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>299</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=qPIrUNCuWjc</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Machado: Trump 'Truly Care For The Life, The Well Being, And The Future' Of Venezuelans</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>During a press conference on Friday, Venezuelan Opposition Leader María Corina Machado spoke about the future of Venezuela.
+Stay Connected
+Forbes Breaking News on X: https://x.com/ForbesTVNews
+Forbes</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1443</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>350</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=toist6_jMyA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Trump’s pardon of convicted woman is the second time he’s erased her sentence in a criminal case</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>President Donald Trump is issuing a slew of pardons, a White House official said Friday, including granting clemency again to a woman who was convicted for a second time after he commuted her sentence</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>18769</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>492</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=eZnCcDMgch0</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>This group of Republicans has had a ‘REALLY BAD YEAR’: Marc Thiessen</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Fox News contributor Marc Thiessen applauds President Donald Trump’s foreign policy feats on ‘Life, Liberty &amp; Levin.’ #fox #media #breakingnews #us #usa #new #news #breaking #foxnews #lifelibertyandle</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1840</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>164</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=A2Gu4533dIs</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Trump has lost the free world</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-- European leaders openly question whether the United States under Donald Trump remains a trustworthy democratic ally
+🛌 Helix Sleep mattresses: Get 20% OFF sitewide at https://helixsleep.com/pakman
+</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>137059</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>423</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=owhvlaGoE3I</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>'NOT IN REALITY': Anti-ICE agitators RIPPED amid mayhem</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Public News founder Michael Shellenberger discusses agitators facing off with I.C.E. agents on 'Jesse Watters Primetime.' #fox #media #breakingnews #us #usa #new #news #breaking #foxnews #jessewatters</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2867</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>181</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ZFOl2INLyGw</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Fascism expert has FLED THE COUNTRY</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>-- Fascism scholar Jason Stanley leaves the United States citing authoritarian tactics and political pressure under Donald Trump
+🛡️ Incogni lets you control your personal data! Get 60% off their annua</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>116017</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>423</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Kv5Lxeaa410</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>'The Justice Department Has Lost Its Way': Top Democrat Reacts To DOJ Investigation Into Walz, Frey</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">During an interview on CNN on Friday, Sen. Richard Blumenthal (D-CT) reacted to the criminal investigations into Gov. Tim Walz (D-MN) and Minneapolis Mayor Jacob Frey.
+Stay Connected
+Forbes Breaking </t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2046</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>413</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=zWof_oNJf0M</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Tim Walz BLASTS DOJ investigation: 'AUTHORITARIAN TACTIC'</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Fox News' Matt Finn reports the latest on the protests in Minneapolis as the Justice Department investigates Gov. Tim Walz and Mayor Jacob Frey. 'Fox &amp; Friends Weekend' co-hosts weigh in.  #foxnews #u</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>104848</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>166</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=syHzragT4O8</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Ted Lieu: 'I Guarantee You A Future Administration' Will Hold ICE Agents Accountable</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Stay Connected
+Forbes Breaking News on X: https://x.com/ForbesTVNews
+Forbes Breaking News on TikTok: https://www.tiktok.com/@forbestvnews
+More From Forbes: http://forbes.com</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2301</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>267</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=0lj04JXPIxA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>You can see the moment he regrets this interview</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>-- Speaker Mike Johnson deflects responsibility from Donald Trump and blames Joe Biden while unraveling during a Fox News interview
+Become a Member: https://www.davidpakman.com/membership
+Subscribe t</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>124163</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>304</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=2OLuan2NkM8</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Fox host was NOT PREPARED for this one</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-- Congressman Jake Auchincloss confronts Fox News host Peter Doocy with the implications of defending the ICE shooting of Renee Good
+Become a Member: https://www.davidpakman.com/membership
+Subscribe</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>60487</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>286</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=QpaCL_6Y2D4</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>New video analysis sheds light on Minneapolis ICE shooting</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A new video analysis from the New York Times sheds light on the moments before the ICE shooting in Minneapolis.
+0:00 New NYT analysis of moments before ICE shooting
+1:12 NY Times visual investigation</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>211097</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>485</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=JiqRLp2muUU</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Higgins Tells Witness: Moskowitz Would've Treated You With 'More Kindness Had You Been An Illegal'</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>During a House Select Committee On January 6 hearing on Wednesday, Rep. Clay Higgins (R-LA) and Rep. Jared Moskowitz (D-FL) traded barbs.
+Stay Connected
+Forbes Breaking News on X: https://x.com/Forbe</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1485</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>404</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gjGF-n65BwQ</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>'It's About Blaming Donald Trump!': Troy Nehls Tears January 6 Committee's Report To Shreds</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>During a House January 6 Select Committee hearing on Wednesday, Rep. Troy Nehls (R-TX) criticized the January 6th Select Committee's Final Report.
+Stay Connected
+Forbes Breaking News on X: https://x.</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1550</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>345</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=xK_lYMejDBE</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Maine nonprofits probed after $1.9M distributed from Lewiston shooting fund</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>The Maine Wire senior reporter Jon Fetherston details how nearly $1.9 million from the Lewiston shooting relief fund was distributed to local nonprofits and why residents are demanding an investigatio</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>83147</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>341</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=RwIrtXJVA5s</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ICE agents are TERRIFIED, and it’s THEIR FAULT</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>-- ICE agents report fear of the public after the killing of Renee Good which exposes how Donald Trump turned immigration enforcement into an unaccountable political weapon
+Become a Member: https://ww</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>141467</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>438</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=LoqpgDCFXPM</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>'It Opened The Floodgates For Racial Profiling...': Johnson Asks Legal Expert About Perdomo Case</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>During a shadow hearing on Friday, Rep. Hank Johnson (D-GA) asked Deepinder Mayell, Executive Director of the ACLU Minnesota, about Justice Brett Kavanaugh's concurring opinion in the case Pedro Vasqu</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1573</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>259</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=lp1WNTxv7nQ</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DAMN: Trump Greenland insanity stopped by…REPUBLICANS?</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>-- Senate Republicans claim they will block Donald Trump from seizing Greenland by force while avoiding direct accountability for enabling his broader foreign policy extremism
+Become a Member: https:/</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>317976</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>325</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=UXH2B0cxJNU</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Candace Owens: Charlie Kirk Thought He Was A TIME TRAVELER?! | RISING</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Candace Owens is facing pushback once again for her theories about Charlie Kirk's death, this time suggesting that he told her he would die young, and also that he thought he was a time traveler. #Can</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>14430</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>The Hill</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>372</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Lds3NYv1fLc</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Former Iranian political prisoner wants Trump to hear this</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Former Iranian political prisoner Navid Mohebbi says the 'crimes against humanity' in Iran are a 'historical test' and how President Donald Trump can help on 'My View.' #fox #media #breakingnews #us #</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>85052</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>444</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=z0JF-u3PktY</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>'Musk Seemed To Revel In It': Lofgren Accuses Musk's Grok Of Making 'Sexualized Images Of Children'</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>During a House Science Committee hearing on Wednesday, Rep. Zoe Lofgren (D-CA) criticized Elon Musk and xAI's Grok model.
+Stay Connected
+Forbes Breaking News on X: https://x.com/ForbesTVNews
+Forbes B</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1894</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>339</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Error: 📝 Summarizing and translating - Error code: 400 - {'error': {'code': 'security_audit_fail', 'message': '模型返回内容中有违规内容，已暂停输出', 'type': 'security_error'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PpSi6qSdCXQ</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>NATO leaders RIP Trump's new tariffs over Greenland: 'UNACCEPTABLE'</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">European leaders react to President Donald Trump imposing new tariffs over resistance to his Greenland push. The 'Fox &amp; Friends Weekend' co-hosts weigh in. #foxnews #trump #world #politics #greenland </t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>24118</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>288</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=urb8m3wguI4</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>James Walkinshaw: ICE Raids In Minnesota Are About 'Political Retribution, Power, And Intimidation'</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>During a hearing on Friday, Rep. James Walkinshaw (D-VA) criticized ICE raids in Minnesota.
+Stay Connected
+Forbes Breaking News on X: https://x.com/ForbesTVNews
+Forbes Breaking News on TikTok: https:</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1151</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>250</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=08I_2Nw5kpE</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Jesse Dollemore did NOT back down</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>-- Jesse Dollemore confronts ICE abuses directly after agents gas a woman in a wheelchair and refuses to retreat under pressure
+🤖 Sponsored by Venice: Use code PAKMAN for 20% off a Pro Account at http</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>364467</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>452</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=YENcZen4sKY</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>'We Have An Absolute National Security Interest': Mike Pence Defends Trump's Bid To Buy Greenland</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>While speaking with CNN's Jake Tapper on Sunday, former Vice President Mike Pence spoke about President Donald Trump's attempt to buy Greenland from Denmark.
+Stay Connected
+Forbes Breaking News on X:</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>197</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=LofeW5tQnWA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>‘IT’S TIME!’: Trump URGES for new leadership in Iran</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Iranian-American advocate Moj Mahdara discusses the ramifications of the protests in Iran and President Donald Trump’s calls for the end of ayatollah’s regime in the country on ‘Fox &amp; Friends Weekend.</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>288294</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>445</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WRxwEnDr4gk</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Gov. Spanberger Signs Exec Orders First Day In Office, 'Make A More Affordable Virginia' | TRENDING</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Spanberger, Virginia's first female Governor, laid out an agenda centered largely around affordability, a cornerstone of her campaign, vowing to tackle the rising cost of goods, housing, and energy, a</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>33476</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>The Hill</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>232</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=dSi-4uybG0I</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Pam Bondi fires prosecutors as Trump administration panics #shorts</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Become a Member: https://www.davidpakman.com/membership
+Subscribe to our (FREE) Substack newsletter: https://substack.davidpakman.com
+Get David's book: https://davidpakman.com/book
+Instagram https://</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>119617</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>168</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=2OxVLfaFvdU</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>'Scenes That Evoke Nazi Germany Or Stalinist Russia': Dave Min Tears Into ICE Over Minnesota Raids</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>During a hearing on Friday, Rep. Dave Min (D-CA) spoke about ICE raids in Minnesota.
+Stay Connected
+Forbes Breaking News on X: https://x.com/ForbesTVNews
+Forbes Breaking News on TikTok: https://www.t</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>263</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=oB90zR0Sfd0</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>GOP lawmaker SLAMS Walz over anti-ICE protests: ‘Leading the state into chaos’</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Rep. Nancy Mace, R-S.C., joins ‘Fox Report Weekend’ to discuss the anti-ICE protests in Minneapolis and the upcoming House hearing on internet crimes targeting children.  media, breaking news, usa, fo</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>65153</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>356</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Error: 📝 Summarizing and translating - Error code: 400 - {'error': {'code': 'security_audit_fail', 'message': '模型返回内容中有违规内容，已暂停输出', 'type': 'security_error'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=-2zK8ICuV6M</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Trump is desperate, and he can’t back down now</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>-- Donald Trump and his allies respond to scandals involving Nicolás Maduro and the killing of Renee Good by rejecting investigation and demanding absolute loyalty
+Become a Member: https://www.davidpa</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>80145</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>428</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=U8_hRFVJvmU</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>'LEGAL GIBBERISH': Former AZ Supreme Court judge tears into liberal's 'indefensible position'</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Former Arizona Supreme Court Justice Andrew Gould discusses women's civil rights protections and warns what could 'destroy' the U.S. economy as the Supreme Court's ruling for tariffs looms on 'Fox New</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>107360</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>330</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=g1DZKieAXrQ</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Minneapolis Mayor Responds To Tom Homan's Claim That He Could 'Fix' ICE 'Collateral Arrest' Problem</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>While speaking with CNN's Jake Tapper on Sunday, Democratic Mayor of Minneapolis Jacob Frey responded to White House Border Czar Tom Homan's claim that he could 'fix' some problems with ICE.
+Stay Con</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>4354</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>169</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=X-mnExp4dzI</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>McClalin Delaney Decries ICE Raids, Warns Trump, Noem That 'There Will Be Accountability'</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>During a hearing on Friday, Rep. April McClain Delaney (D-MD) criticized the Trump administration's ICE raids.
+Stay Connected
+Forbes Breaking News on X: https://x.com/ForbesTVNews
+Forbes Breaking New</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1076</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>260</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=6f7RsoUFguI</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Trump DOUBLES DOWN on Greenland acquisition push: 'It will be done!'</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Alex Gray, a former NSC chief of staff under Trump, joined 'Fox &amp; Friends First' to discuss his take on European resistance to the president's push to acquire Greenland and the latest on unrest in Ira</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>55120</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>334</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Error: 📝 Summarizing and translating - Error code: 400 - {'error': {'code': 'security_audit_fail', 'message': '模型返回内容中有违规内容，已暂停输出', 'type': 'security_error'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=IBh-JaEDS78</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Poll: Americans REJECTING Political Parties, ESPECIALLY Gen-Z! | RISING</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Robby Soave and Lindsey Granger in a recent Gallup survey found that 45% of U.S. adults identify as political independents. #Politics #Independents #Liberals 
+About Rising: 
+Rising is a weekday morni</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>7277</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>The Hill</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>314</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ih7rmR-3W-g</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Rob Menendez Blasts ICE Raids: 'One Of The Most Egregious Attacks On Due Process' In US History</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>During a hearing on Friday, Rep. Rob Menendenz (D-NJ) spoke about ICE raids under the Trump administration.
+Stay Connected
+Forbes Breaking News on X: https://x.com/ForbesTVNews
+Forbes Breaking News o</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>215</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=l6vN19arQls</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>JUST IN: New footage of anti-ICE agitators disrupting church service</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Fox News senior correspondent Steve Harrigan shares new video of the anti-I.C.E. protest in a Minnesota church and reports on the state's response on 'The Story.' #fox #media #breakingnews #us #usa #n</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>122577</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>186</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=aPrbt5-t1hU</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>German President DESTROYS Trump</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>-- German President Frank-Walter Steinmeier warns that Donald Trump is dismantling the postwar global order and isolating the United States
+Become a Member: https://www.davidpakman.com/membership
+[ht</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>41878</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>329</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PAgIanqeOZY</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Drinking, Smoking Hit ALL TIME LOW Among Young People: Data| RISING</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Robby Soave and Lindsey Granger discuss a graph going viral by a political scientist on X that shows that fewer young Americans are drinking alcohol  in 2022 as compared to 1970s. #YoungAmericans #Alc</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>2193</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>The Hill</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>321</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ecWX65O0iMc</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>This Is How People Feel About Trump Push To Take Over Greenland: Foreign Policy Expert</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Jeremy Shapiro, Research Director of the European Council on Foreign Relations, joined "Forbes Newsroom" to discuss how the people of Greenland feel about Trump and the United States. 
+Stay Connecte</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>4625</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>202</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=21GiciexlQs</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Emily Randall: This Is Why I Am A Co-Sponsor Of The Articles Of Impeachment Against Sec. Noem</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>During a hearing on Friday, Rep. Emily Randall (D-WA) explained why she co-sponsored articles of impeachment against DHS Secretary Kristi Noem.
+Stay Connected
+Forbes Breaking News on X: https://x.com</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>5147</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>261</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=VqQffEKL22o</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Smithsonian REMOVES References To Trump IMPEACHMENT In Portrait Gallery | RISING</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Robby Soave and Lindsey Granger discuss the Smithsonian Institution submitting additional records to the White House in connection to a review of the institution's exhibits. #Smithsonian #Trump #250An</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2233</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>The Hill</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>454</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Lmtr9010fkM</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Trump is spiraling and can’t control himself</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>-- Donald Trump falsely claims he can cut off federal funding to sanctuary states and suggests taking Greenland despite clear constitutional and international law barriers
+Become a Member: https://www</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>139507</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>366</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=pKEVuFfR5pQ</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>'Gutfeld!': People you can’t name still want this...</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Fox News host Greg Gutfeld and the 'Gutfeld!' panel react to a new pro-trans sports ad released by the ACLU featuring celebrities. #fox #media #us #usa #new #news #foxnews #gutfeld #greggutfeld #cultu</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>8508</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>307</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=cmpx4Wgx4co</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>VIRAL: ICE caught pulling SHOCKING move against senior</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>BREAKING #news - ICE arrests half-naked man in single-digit temperatures
+For more from Brian Tyler Cohen:
+Straight-news titled YouTube: https://www.youtube.com/@briantylercohennews
+YouTube (español):</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>173968</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>BTC</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>485</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=cPYHff_UDlA</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Trump STUNS the globe with Greenland ESCALATION | Another Day</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Trump’s NEW Greenland threat SHOCKS the world | Another Day
+For more from Brian Tyler Cohen:
+Straight-news titled YouTube: https://www.youtube.com/@briantylercohennews
+YouTube (español): https://www.</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>42466</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>BTC</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>490</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=jraXu2E4xhE</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>They are DESPERATE and they are PANICKING</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>-- Trump surrogates including Pam Bondi lash out on television and fire federal prosecutors as protests intensify after ICE kills Renee Good in Minneapolis
+Become a Member: https://www.davidpakman.com</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>151528</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>The David Pakman Show</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>415</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=xuyjWn8L4vA</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Top UK And Danish Diplomats Respond Publicly To Trump's Greenland Demands And Tariff Threats</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>UK Foreign Secretary Yvette Cooper and Danish Foreign Affairs Minister Lars Lokke Rasmussen speak to reporters.
+Stay Connected
+Forbes Breaking News on X: https://x.com/ForbesTVNews
+Forbes Breaking Ne</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>27446</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>436</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=xp6d8M24eN8</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Tom McClintock Promotes The Preserving Integrity In Immigration Benefits—Then Jamie Raskin Responds</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">At Tuesday's House Judiciary Committee hearing, Rep. Tom McClintock (R-CA) put forward an amendment to the Preserving Integrity in Immigration Benefits, then Rep. Jamie Raskin (D-MD) gave his take on </t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1591</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Forbes Breaking News</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>432</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=nIgJl0BkjXc</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Something really feels 'amiss' in Minnesota: Ex-NFL sideline reporter</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Podcast host Michele Tafoya expresses disgust and anger over anti-ICE protesters disrupting church services and criticizes Minnesota Gov. Walz's 'tepid' response on 'The Story.' #fox #media #us #usa #</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>24187</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>242</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
